--- a/p.values_tabla.xlsx
+++ b/p.values_tabla.xlsx
@@ -5,26 +5,41 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upperu-my.sharepoint.com/personal/gj_camposm_alum_up_edu_pe/Documents/Research/Academic/orthogonal_portfolios/orthogonal_temp/resultadosorthogonal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geral\OneDrive - Universidad del Pacífico\Research\Academic\orthogonal_portfolios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8651D4D6-A1E8-4B2E-B94E-1A044AA9128C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD68CCE4-E49D-45A0-BFD7-3425CB3FF888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06DE903F-65B2-4F01-93D8-738F6B4E7F8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06DE903F-65B2-4F01-93D8-738F6B4E7F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="p.values_tabla" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="p.values_tabla" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="37">
   <si>
     <t>h</t>
   </si>
@@ -129,6 +144,12 @@
   </si>
   <si>
     <t>Sum of cbr.qs</t>
+  </si>
+  <si>
+    <t>retienes que medias de utildiades esperadas son iguales</t>
+  </si>
+  <si>
+    <t>rechazas que la smedias de utilidades esperadas son iguales</t>
   </si>
 </sst>
 </file>
@@ -271,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +472,30 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -612,9 +657,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -622,6 +666,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -667,217 +716,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -928,7 +767,15 @@
       </sharedItems>
     </cacheField>
     <cacheField name="etf" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="7">
+        <s v="eem"/>
+        <s v="eemo"/>
+        <s v="eemv"/>
+        <s v="fem"/>
+        <s v="ieem"/>
+        <s v="psrm"/>
+        <s v="vwo"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="m.q" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
@@ -974,7 +821,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -989,7 +836,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1004,7 +851,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1019,7 +866,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1034,7 +881,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1049,7 +896,7 @@
   <r>
     <x v="5"/>
     <x v="0"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1064,7 +911,7 @@
   <r>
     <x v="6"/>
     <x v="0"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1079,7 +926,7 @@
   <r>
     <x v="7"/>
     <x v="0"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1094,7 +941,7 @@
   <r>
     <x v="8"/>
     <x v="0"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1109,7 +956,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1124,7 +971,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
@@ -1139,7 +986,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1154,7 +1001,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1169,7 +1016,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1184,7 +1031,7 @@
   <r>
     <x v="5"/>
     <x v="1"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1199,7 +1046,7 @@
   <r>
     <x v="6"/>
     <x v="1"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1214,7 +1061,7 @@
   <r>
     <x v="7"/>
     <x v="1"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1229,7 +1076,7 @@
   <r>
     <x v="8"/>
     <x v="1"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1244,7 +1091,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -1259,7 +1106,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1274,7 +1121,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1289,7 +1136,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1304,7 +1151,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1319,7 +1166,7 @@
   <r>
     <x v="5"/>
     <x v="2"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1334,7 +1181,7 @@
   <r>
     <x v="6"/>
     <x v="2"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1349,7 +1196,7 @@
   <r>
     <x v="7"/>
     <x v="2"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1364,7 +1211,7 @@
   <r>
     <x v="8"/>
     <x v="2"/>
-    <s v="eem"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1379,7 +1226,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -1394,7 +1241,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1409,7 +1256,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1424,7 +1271,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1439,7 +1286,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1454,7 +1301,7 @@
   <r>
     <x v="5"/>
     <x v="0"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1469,7 +1316,7 @@
   <r>
     <x v="6"/>
     <x v="0"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1484,7 +1331,7 @@
   <r>
     <x v="7"/>
     <x v="0"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1499,7 +1346,7 @@
   <r>
     <x v="8"/>
     <x v="0"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1514,7 +1361,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -1529,7 +1376,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1544,7 +1391,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1559,7 +1406,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1574,7 +1421,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1589,7 +1436,7 @@
   <r>
     <x v="5"/>
     <x v="1"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1604,7 +1451,7 @@
   <r>
     <x v="6"/>
     <x v="1"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1619,7 +1466,7 @@
   <r>
     <x v="7"/>
     <x v="1"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1634,7 +1481,7 @@
   <r>
     <x v="8"/>
     <x v="1"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1649,7 +1496,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -1664,7 +1511,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1679,7 +1526,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1694,7 +1541,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1709,7 +1556,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1724,7 +1571,7 @@
   <r>
     <x v="5"/>
     <x v="2"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1739,7 +1586,7 @@
   <r>
     <x v="6"/>
     <x v="2"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1754,7 +1601,7 @@
   <r>
     <x v="7"/>
     <x v="2"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1769,7 +1616,7 @@
   <r>
     <x v="8"/>
     <x v="2"/>
-    <s v="eemo"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1784,7 +1631,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -1799,7 +1646,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1814,7 +1661,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1829,7 +1676,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1844,7 +1691,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1859,7 +1706,7 @@
   <r>
     <x v="5"/>
     <x v="0"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1874,7 +1721,7 @@
   <r>
     <x v="6"/>
     <x v="0"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1889,7 +1736,7 @@
   <r>
     <x v="7"/>
     <x v="0"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1904,7 +1751,7 @@
   <r>
     <x v="8"/>
     <x v="0"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1919,7 +1766,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -1934,7 +1781,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1949,7 +1796,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -1964,7 +1811,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1979,7 +1826,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1994,7 +1841,7 @@
   <r>
     <x v="5"/>
     <x v="1"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2009,7 +1856,7 @@
   <r>
     <x v="6"/>
     <x v="1"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2024,7 +1871,7 @@
   <r>
     <x v="7"/>
     <x v="1"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2039,7 +1886,7 @@
   <r>
     <x v="8"/>
     <x v="1"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2054,7 +1901,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -2069,7 +1916,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -2084,7 +1931,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -2099,7 +1946,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2114,7 +1961,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2129,7 +1976,7 @@
   <r>
     <x v="5"/>
     <x v="2"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2144,7 +1991,7 @@
   <r>
     <x v="6"/>
     <x v="2"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2159,7 +2006,7 @@
   <r>
     <x v="7"/>
     <x v="2"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2174,7 +2021,7 @@
   <r>
     <x v="8"/>
     <x v="2"/>
-    <s v="eemv"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2189,7 +2036,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -2204,7 +2051,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -2219,7 +2066,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2234,7 +2081,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2249,7 +2096,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2264,7 +2111,7 @@
   <r>
     <x v="5"/>
     <x v="0"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2279,7 +2126,7 @@
   <r>
     <x v="6"/>
     <x v="0"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2294,7 +2141,7 @@
   <r>
     <x v="7"/>
     <x v="0"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2309,7 +2156,7 @@
   <r>
     <x v="8"/>
     <x v="0"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2324,7 +2171,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -2339,7 +2186,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -2354,7 +2201,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2369,7 +2216,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2384,7 +2231,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2399,7 +2246,7 @@
   <r>
     <x v="5"/>
     <x v="1"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2414,7 +2261,7 @@
   <r>
     <x v="6"/>
     <x v="1"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2429,7 +2276,7 @@
   <r>
     <x v="7"/>
     <x v="1"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2444,7 +2291,7 @@
   <r>
     <x v="8"/>
     <x v="1"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2459,7 +2306,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -2474,7 +2321,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -2489,7 +2336,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
@@ -2504,7 +2351,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2519,7 +2366,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2534,7 +2381,7 @@
   <r>
     <x v="5"/>
     <x v="2"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2549,7 +2396,7 @@
   <r>
     <x v="6"/>
     <x v="2"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2564,7 +2411,7 @@
   <r>
     <x v="7"/>
     <x v="2"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2579,7 +2426,7 @@
   <r>
     <x v="8"/>
     <x v="2"/>
-    <s v="fem"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2594,7 +2441,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -2609,7 +2456,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
@@ -2624,7 +2471,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2639,7 +2486,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2654,7 +2501,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2669,7 +2516,7 @@
   <r>
     <x v="5"/>
     <x v="0"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2684,7 +2531,7 @@
   <r>
     <x v="6"/>
     <x v="0"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2699,7 +2546,7 @@
   <r>
     <x v="7"/>
     <x v="0"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2714,7 +2561,7 @@
   <r>
     <x v="8"/>
     <x v="0"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2729,7 +2576,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -2744,7 +2591,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
@@ -2759,7 +2606,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2774,7 +2621,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2789,7 +2636,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2804,7 +2651,7 @@
   <r>
     <x v="5"/>
     <x v="1"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2819,7 +2666,7 @@
   <r>
     <x v="6"/>
     <x v="1"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2834,7 +2681,7 @@
   <r>
     <x v="7"/>
     <x v="1"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2849,7 +2696,7 @@
   <r>
     <x v="8"/>
     <x v="1"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2864,7 +2711,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -2879,7 +2726,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
@@ -2894,7 +2741,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2909,7 +2756,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2924,7 +2771,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2939,7 +2786,7 @@
   <r>
     <x v="5"/>
     <x v="2"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2954,7 +2801,7 @@
   <r>
     <x v="6"/>
     <x v="2"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2969,7 +2816,7 @@
   <r>
     <x v="7"/>
     <x v="2"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2984,7 +2831,7 @@
   <r>
     <x v="8"/>
     <x v="2"/>
-    <s v="ieem"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2999,7 +2846,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3014,7 +2861,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -3029,7 +2876,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -3044,7 +2891,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3059,7 +2906,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3074,7 +2921,7 @@
   <r>
     <x v="5"/>
     <x v="0"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3089,7 +2936,7 @@
   <r>
     <x v="6"/>
     <x v="0"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3104,7 +2951,7 @@
   <r>
     <x v="7"/>
     <x v="0"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3119,7 +2966,7 @@
   <r>
     <x v="8"/>
     <x v="0"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3134,7 +2981,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3149,7 +2996,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -3164,7 +3011,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -3179,7 +3026,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3194,7 +3041,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3209,7 +3056,7 @@
   <r>
     <x v="5"/>
     <x v="1"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3224,7 +3071,7 @@
   <r>
     <x v="6"/>
     <x v="1"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3239,7 +3086,7 @@
   <r>
     <x v="7"/>
     <x v="1"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3254,7 +3101,7 @@
   <r>
     <x v="8"/>
     <x v="1"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3269,7 +3116,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3284,7 +3131,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -3299,7 +3146,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -3314,7 +3161,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3329,7 +3176,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3344,7 +3191,7 @@
   <r>
     <x v="5"/>
     <x v="2"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3359,7 +3206,7 @@
   <r>
     <x v="6"/>
     <x v="2"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3374,7 +3221,7 @@
   <r>
     <x v="7"/>
     <x v="2"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3389,7 +3236,7 @@
   <r>
     <x v="8"/>
     <x v="2"/>
-    <s v="psrm"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3404,7 +3251,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3419,7 +3266,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -3434,7 +3281,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3449,7 +3296,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3464,7 +3311,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3479,7 +3326,7 @@
   <r>
     <x v="5"/>
     <x v="0"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3494,7 +3341,7 @@
   <r>
     <x v="6"/>
     <x v="0"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3509,7 +3356,7 @@
   <r>
     <x v="7"/>
     <x v="0"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3524,7 +3371,7 @@
   <r>
     <x v="8"/>
     <x v="0"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3539,7 +3386,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3554,7 +3401,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -3569,7 +3416,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3584,7 +3431,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3599,7 +3446,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3614,7 +3461,7 @@
   <r>
     <x v="5"/>
     <x v="1"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3629,7 +3476,7 @@
   <r>
     <x v="6"/>
     <x v="1"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3644,7 +3491,7 @@
   <r>
     <x v="7"/>
     <x v="1"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3659,7 +3506,7 @@
   <r>
     <x v="8"/>
     <x v="1"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3674,7 +3521,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3689,7 +3536,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -3704,7 +3551,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3719,7 +3566,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3734,7 +3581,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3749,7 +3596,7 @@
   <r>
     <x v="5"/>
     <x v="2"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3764,7 +3611,7 @@
   <r>
     <x v="6"/>
     <x v="2"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3779,7 +3626,7 @@
   <r>
     <x v="7"/>
     <x v="2"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3794,7 +3641,7 @@
   <r>
     <x v="8"/>
     <x v="2"/>
-    <s v="vwo"/>
+    <x v="6"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3810,10 +3657,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3023BE39-9E90-434A-A3D9-A875E5D0A7DE}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:K41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3023BE39-9E90-434A-A3D9-A875E5D0A7DE}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:K29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisPage" showAll="0">
       <items count="10">
         <item x="0"/>
         <item x="1"/>
@@ -3835,7 +3682,18 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -3848,10 +3706,10 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
-    <field x="0"/>
     <field x="1"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="37">
+  <rowItems count="25">
     <i>
       <x/>
     </i>
@@ -3863,6 +3721,18 @@
     </i>
     <i r="1">
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
     </i>
     <i>
       <x v="1"/>
@@ -3876,6 +3746,18 @@
     <i r="1">
       <x v="2"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
@@ -3888,77 +3770,17 @@
     <i r="1">
       <x v="2"/>
     </i>
-    <i>
+    <i r="1">
       <x v="3"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
       <x v="4"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
       <x v="5"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
       <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -3999,6 +3821,9 @@
       <x v="9"/>
     </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="0" item="0" hier="-1"/>
+  </pageFields>
   <dataFields count="10">
     <dataField name="Sum of m.q" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Sum of kz.q" fld="4" baseField="0" baseItem="0"/>
@@ -4340,29 +4165,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE8DD7-D004-474E-879E-3173A5505C98}">
-  <dimension ref="A4:K41"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A3" zoomScale="96" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+    </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
@@ -4397,1297 +4231,877 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>100</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+      <c r="J13" s="4">
+        <v>7</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4">
+        <v>7</v>
+      </c>
+      <c r="I21" s="4">
+        <v>4</v>
+      </c>
+      <c r="J21" s="4">
+        <v>7</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1">
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4">
+        <v>21</v>
+      </c>
+      <c r="D29" s="4">
+        <v>21</v>
+      </c>
+      <c r="E29" s="4">
+        <v>21</v>
+      </c>
+      <c r="F29" s="4">
         <v>16</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G29" s="4">
         <v>21</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H29" s="4">
         <v>21</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I29" s="4">
         <v>13</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J29" s="4">
         <v>21</v>
       </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1">
-        <v>7</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>7</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4</v>
-      </c>
-      <c r="J8" s="1">
-        <v>7</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>150</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>6</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>200</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>4</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>3</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>250</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>5</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>300</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>350</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>400</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>450</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>500</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="1">
-        <v>17</v>
-      </c>
-      <c r="C41" s="1">
-        <v>47</v>
-      </c>
-      <c r="D41" s="1">
-        <v>52</v>
-      </c>
-      <c r="E41" s="1">
-        <v>67</v>
-      </c>
-      <c r="F41" s="1">
-        <v>23</v>
-      </c>
-      <c r="G41" s="1">
-        <v>33</v>
-      </c>
-      <c r="H41" s="1">
-        <v>55</v>
-      </c>
-      <c r="I41" s="1">
-        <v>13</v>
-      </c>
-      <c r="J41" s="1">
-        <v>26</v>
-      </c>
-      <c r="K41" s="1">
+      <c r="K29" s="4">
         <v>2</v>
       </c>
     </row>
@@ -5697,11 +5111,2201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D75F424-F948-4E94-B040-C28ED7F7E2CC}">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="str">
+        <f>+_xlfn.CONCAT(B2:K2)</f>
+        <v>2333133030</v>
+      </c>
+      <c r="M2" s="5" t="b">
+        <f>+AND(L3=L4,L4=L5)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="str">
+        <f t="shared" ref="L3:L30" si="0">+_xlfn.CONCAT(B3:K3)</f>
+        <v>1111111010</v>
+      </c>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>0111011010</v>
+      </c>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1111011010</v>
+      </c>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>3333333332</v>
+      </c>
+      <c r="M6" s="6" t="b">
+        <f>+AND(L7=L8,L8=L9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111111</v>
+      </c>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111111</v>
+      </c>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>3333333330</v>
+      </c>
+      <c r="M10" t="b">
+        <f>+AND(L11=L12,L12=L13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
+      <c r="J14" s="7">
+        <v>3</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>3333333230</v>
+      </c>
+      <c r="M14" s="7" t="b">
+        <f>+AND(L15=L16,L16=L17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111010</v>
+      </c>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>0333033030</v>
+      </c>
+      <c r="M18" t="b">
+        <f>+AND(L19=L20,L20=L21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>0111011010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>0111011010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>0111011010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8">
+        <v>3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>3</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3</v>
+      </c>
+      <c r="G22" s="8">
+        <v>3</v>
+      </c>
+      <c r="H22" s="8">
+        <v>3</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>3</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3333333230</v>
+      </c>
+      <c r="M22" s="8" t="b">
+        <f>+AND(L23=L24,L24=L25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111010</v>
+      </c>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>3333333330</v>
+      </c>
+      <c r="M26" t="b">
+        <f>+AND(L27=L28,L28=L29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>21</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>21</v>
+      </c>
+      <c r="H30">
+        <v>21</v>
+      </c>
+      <c r="I30">
+        <v>13</v>
+      </c>
+      <c r="J30">
+        <v>21</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>1721212116212113212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3B212F-3CE1-45DC-8FA8-E81578872470}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="str">
+        <f>+_xlfn.CONCAT(B2:K2)</f>
+        <v>6777677471</v>
+      </c>
+      <c r="M2" t="b">
+        <f>+AND(L2=L10,L10=L18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="str">
+        <f>+_xlfn.CONCAT(B10:K10)</f>
+        <v>5777577571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="str">
+        <f>+_xlfn.CONCAT(B18:K18)</f>
+        <v>6777577470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>21</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <v>21</v>
+      </c>
+      <c r="I26">
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>21</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462DE2E3-A434-45A8-B1EA-CA18E4C2BA6C}">
   <dimension ref="A1:AA190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M190"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13533,107 +15137,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D11:M19">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:M10">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:M28">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:M37">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:M46">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:M55">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56:M64">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:M73">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74:M82">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:M91">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92:M100">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101:M109">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D110:M118">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D119:M127">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D128:M136">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D137:M145">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D146:M154">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155:M163">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D164:M172">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D173:M181">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D182:M190">
+  <conditionalFormatting sqref="D2:M190">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/p.values_tabla.xlsx
+++ b/p.values_tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geral\OneDrive - Universidad del Pacífico\Research\Academic\orthogonal_portfolios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD68CCE4-E49D-45A0-BFD7-3425CB3FF888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F9BEBA-DE1C-4F3B-A976-44CB601AC85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06DE903F-65B2-4F01-93D8-738F6B4E7F8A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="39">
   <si>
     <t>h</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>rechazas que la smedias de utilidades esperadas son iguales</t>
+  </si>
+  <si>
+    <t>concatenar columnas</t>
+  </si>
+  <si>
+    <t>iguales todas las filas?</t>
   </si>
 </sst>
 </file>
@@ -657,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -667,10 +673,24 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3657,8 +3677,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3023BE39-9E90-434A-A3D9-A875E5D0A7DE}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:K29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3023BE39-9E90-434A-A3D9-A875E5D0A7DE}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:K33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField axis="axisPage" showAll="0">
       <items count="10">
@@ -3706,10 +3726,10 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
+    <field x="2"/>
     <field x="1"/>
-    <field x="2"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="29">
     <i>
       <x/>
     </i>
@@ -3721,18 +3741,6 @@
     </i>
     <i r="1">
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
     </i>
     <i>
       <x v="1"/>
@@ -3746,18 +3754,6 @@
     <i r="1">
       <x v="2"/>
     </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
     <i>
       <x v="2"/>
     </i>
@@ -3770,17 +3766,53 @@
     <i r="1">
       <x v="2"/>
     </i>
-    <i r="1">
+    <i>
       <x v="3"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
       <x v="4"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
       <x v="5"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
       <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -4165,10 +4197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE8DD7-D004-474E-879E-3173A5505C98}">
-  <dimension ref="A2:K29"/>
+  <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K29"/>
+    <sheetView topLeftCell="A2" zoomScale="96" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4232,42 +4264,42 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H5" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -4302,10 +4334,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -4317,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -4326,18 +4358,18 @@
         <v>1</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
         <v>1</v>
       </c>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -4352,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -4361,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -4371,46 +4403,46 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
+      <c r="A9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -4422,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -4431,18 +4463,18 @@
         <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="4">
         <v>1</v>
       </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -4466,18 +4498,18 @@
         <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -4512,45 +4544,45 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D13" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H13" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -4562,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -4571,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
@@ -4582,7 +4614,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -4612,12 +4644,12 @@
         <v>1</v>
       </c>
       <c r="K15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -4651,35 +4683,35 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -4687,10 +4719,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -4702,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -4711,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
@@ -4722,7 +4754,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -4757,7 +4789,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -4781,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
@@ -4792,34 +4824,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C21" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D21" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E21" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F21" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H21" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I21" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -4827,10 +4859,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -4862,10 +4894,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -4877,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
@@ -4886,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="4">
         <v>1</v>
@@ -4897,10 +4929,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -4912,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -4921,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
@@ -4931,35 +4963,35 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>19</v>
+      <c r="A25" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B25" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
@@ -4967,10 +4999,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -4982,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -5002,7 +5034,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -5037,7 +5069,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -5072,36 +5104,176 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3</v>
+      </c>
+      <c r="G29" s="4">
+        <v>3</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4">
+        <v>3</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B33" s="4">
         <v>17</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C33" s="4">
         <v>21</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D33" s="4">
         <v>21</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E33" s="4">
         <v>21</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F33" s="4">
         <v>16</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G33" s="4">
         <v>21</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H33" s="4">
         <v>21</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I33" s="4">
         <v>13</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J33" s="4">
         <v>21</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K33" s="4">
         <v>2</v>
       </c>
     </row>
@@ -5115,7 +5287,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5131,44 +5303,50 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="O1">
         <v>0</v>
@@ -5178,44 +5356,44 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>3</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
         <v>3</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <v>3</v>
       </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
         <v>3</v>
       </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="str">
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7" t="str">
         <f>+_xlfn.CONCAT(B2:K2)</f>
         <v>2333133030</v>
       </c>
-      <c r="M2" s="5" t="b">
+      <c r="M2" s="7" t="b">
         <f>+AND(L3=L4,L4=L5)</f>
         <v>0</v>
       </c>
@@ -5227,1132 +5405,1142 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="str">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="str">
         <f t="shared" ref="L3:L30" si="0">+_xlfn.CONCAT(B3:K3)</f>
         <v>1111111010</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="str">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0111011010</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="str">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1111011010</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="8">
         <v>3</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="8">
         <v>3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="8">
         <v>3</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="8">
         <v>2</v>
       </c>
-      <c r="L6" s="6" t="str">
+      <c r="L6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>3333333332</v>
       </c>
-      <c r="M6" s="6" t="b">
+      <c r="M6" s="8" t="b">
         <f>+AND(L7=L8,L8=L9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6" t="str">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>1111111111</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6" t="str">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>1111111111</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="str">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>1111111110</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>3</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>3</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="str">
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>3333333330</v>
       </c>
-      <c r="M10" t="b">
+      <c r="M10" s="5" t="b">
         <f>+AND(L11=L12,L12=L13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="str">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1111111110</v>
       </c>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="str">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1111111110</v>
       </c>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="str">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1111111110</v>
       </c>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>3</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="9">
         <v>3</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="9">
         <v>3</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="9">
         <v>3</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="9">
         <v>3</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="9">
         <v>2</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="9">
         <v>3</v>
       </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7" t="str">
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>3333333230</v>
       </c>
-      <c r="M14" s="7" t="b">
+      <c r="M14" s="9" t="b">
         <f>+AND(L15=L16,L16=L17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7" t="str">
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>1111111110</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7" t="str">
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>1111111110</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7" t="str">
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>1111111010</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
         <v>3</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
         <v>3</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="str">
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0333033030</v>
       </c>
-      <c r="M18" t="b">
+      <c r="M18" s="5" t="b">
         <f>+AND(L19=L20,L20=L21)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="str">
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0111011010</v>
       </c>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="str">
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0111011010</v>
       </c>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="str">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0111011010</v>
       </c>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="10">
         <v>3</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="10">
         <v>3</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="10">
         <v>3</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="10">
         <v>3</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="10">
         <v>3</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="10">
         <v>3</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="10">
         <v>2</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="10">
         <v>3</v>
       </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8" t="str">
+      <c r="K22" s="10">
+        <v>0</v>
+      </c>
+      <c r="L22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>3333333230</v>
       </c>
-      <c r="M22" s="8" t="b">
+      <c r="M22" s="10" t="b">
         <f>+AND(L23=L24,L24=L25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8" t="str">
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0</v>
+      </c>
+      <c r="L23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>1111111010</v>
       </c>
-      <c r="M23" s="8"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1</v>
-      </c>
-      <c r="J24" s="8">
-        <v>1</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8" t="str">
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>1111111110</v>
       </c>
-      <c r="M24" s="8"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
-        <v>1</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8">
-        <v>1</v>
-      </c>
-      <c r="J25" s="8">
-        <v>1</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8" t="str">
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+      <c r="L25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>1111111110</v>
       </c>
-      <c r="M25" s="8"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>3</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>3</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <v>3</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="5">
         <v>3</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
         <v>3</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="5">
         <v>3</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="5">
         <v>3</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="str">
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>3333333330</v>
       </c>
-      <c r="M26" t="b">
+      <c r="M26" s="5" t="b">
         <f>+AND(L27=L28,L28=L29)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="str">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1111111110</v>
       </c>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" t="str">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1111111110</v>
       </c>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="str">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1111111110</v>
       </c>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>17</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>21</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>21</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>21</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="5">
         <v>16</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="5">
         <v>21</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="5">
         <v>21</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="5">
         <v>13</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="5">
         <v>21</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="5">
         <v>2</v>
       </c>
-      <c r="L30" t="str">
+      <c r="L30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1721212116212113212</v>
       </c>
+      <c r="M30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6364,7 +6552,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7304,8 +7492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462DE2E3-A434-45A8-B1EA-CA18E4C2BA6C}">
   <dimension ref="A1:AA190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7826,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -9000,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -9047,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -10034,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -10122,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -11109,7 +11297,7 @@
         <v>1</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -11132,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -12242,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -13329,7 +13517,7 @@
         <v>1</v>
       </c>
       <c r="M146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -13428,10 +13616,10 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13443,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -14500,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
         <v>0</v>
